--- a/fgt-tables/fgt_raca_rm.xlsx
+++ b/fgt-tables/fgt_raca_rm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.173660545868166</v>
+        <v>0.161197760840216</v>
       </c>
       <c r="C2">
-        <v>0.01150071012958581</v>
+        <v>0.01163354830652435</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.17764272837888</v>
+        <v>0.1439540370011767</v>
       </c>
       <c r="C3">
-        <v>0.001881530291574851</v>
+        <v>0.001672567678019396</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3708291206026462</v>
+        <v>0.3038949153813413</v>
       </c>
       <c r="C4">
-        <v>0.01583051608715504</v>
+        <v>0.01535662063916811</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3067891604430716</v>
+        <v>0.2703798058130104</v>
       </c>
       <c r="C5">
-        <v>0.003606899078714492</v>
+        <v>0.003451387287577847</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3351324298251124</v>
+        <v>0.2845714814316892</v>
       </c>
       <c r="C6">
-        <v>0.002034585037187028</v>
+        <v>0.001870071720553954</v>
       </c>
     </row>
   </sheetData>
